--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.27076193944</v>
+        <v>203.0018895615293</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.3976212622674</v>
+        <v>277.7561411092543</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.558269338354</v>
+        <v>251.247484835061</v>
       </c>
       <c r="AD2" t="n">
-        <v>144270.76193944</v>
+        <v>203001.8895615293</v>
       </c>
       <c r="AE2" t="n">
-        <v>197397.6212622674</v>
+        <v>277756.1411092543</v>
       </c>
       <c r="AF2" t="n">
         <v>1.351562238830746e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>178558.269338354</v>
+        <v>251247.484835061</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.4646335917786</v>
+        <v>190.1615957950871</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.8757114904965</v>
+        <v>260.1874847042357</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.7086260430405</v>
+        <v>235.3555563395676</v>
       </c>
       <c r="AD3" t="n">
-        <v>131464.6335917786</v>
+        <v>190161.5957950871</v>
       </c>
       <c r="AE3" t="n">
-        <v>179875.7114904965</v>
+        <v>260187.4847042357</v>
       </c>
       <c r="AF3" t="n">
         <v>1.42801714815498e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.99537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>162708.6260430405</v>
+        <v>235355.5563395676</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.3282036968046</v>
+        <v>187.6977950584209</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.6349950244166</v>
+        <v>256.8164038411135</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.441058657236</v>
+        <v>232.3062067026791</v>
       </c>
       <c r="AD2" t="n">
-        <v>139328.2036968046</v>
+        <v>187697.7950584209</v>
       </c>
       <c r="AE2" t="n">
-        <v>190634.9950244166</v>
+        <v>256816.4038411135</v>
       </c>
       <c r="AF2" t="n">
         <v>1.531606434181143e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>172441.058657236</v>
+        <v>232306.2067026791</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.371494955253</v>
+        <v>211.4712310046877</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.5861339042724</v>
+        <v>289.3442677127521</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.2972116510223</v>
+        <v>261.7296568995625</v>
       </c>
       <c r="AD2" t="n">
-        <v>155371.494955253</v>
+        <v>211471.2310046877</v>
       </c>
       <c r="AE2" t="n">
-        <v>212586.1339042724</v>
+        <v>289344.267712752</v>
       </c>
       <c r="AF2" t="n">
         <v>1.837800257995699e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.04398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>192297.2116510223</v>
+        <v>261729.6568995625</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.5705793101701</v>
+        <v>202.8802393719598</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.8618916808234</v>
+        <v>277.5896939530579</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.0280550011703</v>
+        <v>251.0969231618418</v>
       </c>
       <c r="AD2" t="n">
-        <v>136570.5793101701</v>
+        <v>202880.2393719598</v>
       </c>
       <c r="AE2" t="n">
-        <v>186861.8916808234</v>
+        <v>277589.6939530579</v>
       </c>
       <c r="AF2" t="n">
         <v>1.738333199547686e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>169028.0550011703</v>
+        <v>251096.9231618418</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.1669622484657</v>
+        <v>240.1427423591013</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.3569685172427</v>
+        <v>328.57389444565</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.6583385395319</v>
+        <v>297.215263116212</v>
       </c>
       <c r="AD2" t="n">
-        <v>166166.9622484657</v>
+        <v>240142.7423591013</v>
       </c>
       <c r="AE2" t="n">
-        <v>227356.9685172427</v>
+        <v>328573.89444565</v>
       </c>
       <c r="AF2" t="n">
         <v>1.871464215991656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.67592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>205658.3385395319</v>
+        <v>297215.263116212</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.754141123582</v>
+        <v>188.2656302287916</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.2177814027661</v>
+        <v>257.5933409723339</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.9682247215819</v>
+        <v>233.0089940445342</v>
       </c>
       <c r="AD2" t="n">
-        <v>139754.141123582</v>
+        <v>188265.6302287916</v>
       </c>
       <c r="AE2" t="n">
-        <v>191217.7814027661</v>
+        <v>257593.3409723339</v>
       </c>
       <c r="AF2" t="n">
         <v>1.505871689967752e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>172968.2247215819</v>
+        <v>233008.9940445342</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8666443517962</v>
+        <v>188.3781334570057</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.3717132829008</v>
+        <v>257.7472728524685</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.1074655591214</v>
+        <v>233.1482348820736</v>
       </c>
       <c r="AD3" t="n">
-        <v>139866.6443517962</v>
+        <v>188378.1334570057</v>
       </c>
       <c r="AE3" t="n">
-        <v>191371.7132829008</v>
+        <v>257747.2728524685</v>
       </c>
       <c r="AF3" t="n">
         <v>1.505480746268853e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>173107.4655591213</v>
+        <v>233148.2348820736</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.7594934478092</v>
+        <v>260.208320545135</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.5325781825296</v>
+        <v>356.0285037507691</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.1449075630894</v>
+        <v>322.0496430419382</v>
       </c>
       <c r="AD2" t="n">
-        <v>186759.4934478092</v>
+        <v>260208.320545135</v>
       </c>
       <c r="AE2" t="n">
-        <v>255532.5781825296</v>
+        <v>356028.5037507691</v>
       </c>
       <c r="AF2" t="n">
         <v>1.85950011440581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.15740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>231144.9075630894</v>
+        <v>322049.6430419382</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.726788420791</v>
+        <v>195.1559658958633</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.44386799432</v>
+        <v>267.0210022121725</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.459049715625</v>
+        <v>241.5368925274512</v>
       </c>
       <c r="AD2" t="n">
-        <v>137726.788420791</v>
+        <v>195155.9658958633</v>
       </c>
       <c r="AE2" t="n">
-        <v>188443.86799432</v>
+        <v>267021.0022121725</v>
       </c>
       <c r="AF2" t="n">
         <v>1.63346592283446e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>170459.049715625</v>
+        <v>241536.8925274512</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.866061336522</v>
+        <v>196.6711187106156</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.0026714587962</v>
+        <v>269.0941011371402</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8690831652465</v>
+        <v>243.4121378006332</v>
       </c>
       <c r="AD2" t="n">
-        <v>138866.061336522</v>
+        <v>196671.1187106156</v>
       </c>
       <c r="AE2" t="n">
-        <v>190002.6714587962</v>
+        <v>269094.1011371402</v>
       </c>
       <c r="AF2" t="n">
         <v>1.561661306636954e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>171869.0831652465</v>
+        <v>243412.1378006332</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.0258183105605</v>
+        <v>200.5013429447016</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.3259903493129</v>
+        <v>274.3347829117814</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.7797905686699</v>
+        <v>248.1526562620475</v>
       </c>
       <c r="AD2" t="n">
-        <v>142025.8183105605</v>
+        <v>200501.3429447016</v>
       </c>
       <c r="AE2" t="n">
-        <v>194325.9903493129</v>
+        <v>274334.7829117814</v>
       </c>
       <c r="AF2" t="n">
         <v>1.416559794849719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>175779.7905686699</v>
+        <v>248152.6562620475</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.918212307552</v>
+        <v>189.6992328024837</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.8105149518693</v>
+        <v>259.5548592597403</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.4089500161747</v>
+        <v>234.7833077795994</v>
       </c>
       <c r="AD3" t="n">
-        <v>140918.212307552</v>
+        <v>189699.2328024837</v>
       </c>
       <c r="AE3" t="n">
-        <v>192810.5149518693</v>
+        <v>259554.8592597403</v>
       </c>
       <c r="AF3" t="n">
         <v>1.451765435457827e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>174408.9500161747</v>
+        <v>234783.3077795994</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.8728208550195</v>
+        <v>193.9912727902551</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.2754318964419</v>
+        <v>265.4274177224466</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.4021275190177</v>
+        <v>240.0953975048144</v>
       </c>
       <c r="AD2" t="n">
-        <v>136872.8208550195</v>
+        <v>193991.2727902551</v>
       </c>
       <c r="AE2" t="n">
-        <v>187275.4318964419</v>
+        <v>265427.4177224467</v>
       </c>
       <c r="AF2" t="n">
         <v>1.704475537639504e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>169402.1275190177</v>
+        <v>240095.3975048144</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.8547026676765</v>
+        <v>211.6270708294225</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.5648388451726</v>
+        <v>289.5574946361219</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.5186507168564</v>
+        <v>261.9225337446318</v>
       </c>
       <c r="AD2" t="n">
-        <v>145854.7026676765</v>
+        <v>211627.0708294225</v>
       </c>
       <c r="AE2" t="n">
-        <v>199564.8388451726</v>
+        <v>289557.4946361219</v>
       </c>
       <c r="AF2" t="n">
         <v>1.806387554031628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.56944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>180518.6507168564</v>
+        <v>261922.5337446318</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.8758221681989</v>
+        <v>221.0175940917641</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.2761766463709</v>
+        <v>302.4060228442991</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.9213976822962</v>
+        <v>273.5448164536473</v>
       </c>
       <c r="AD2" t="n">
-        <v>155875.8221681989</v>
+        <v>221017.5940917641</v>
       </c>
       <c r="AE2" t="n">
-        <v>213276.1766463709</v>
+        <v>302406.0228442991</v>
       </c>
       <c r="AF2" t="n">
         <v>1.857517230039896e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.72685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>192921.3976822962</v>
+        <v>273544.8164536473</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.2036624564787</v>
+        <v>300.3466515595899</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.24168038703</v>
+        <v>410.9475390229354</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.9231761536977</v>
+        <v>371.7272826670791</v>
       </c>
       <c r="AD2" t="n">
-        <v>209203.6624564787</v>
+        <v>300346.6515595899</v>
       </c>
       <c r="AE2" t="n">
-        <v>286241.68038703</v>
+        <v>410947.5390229354</v>
       </c>
       <c r="AF2" t="n">
         <v>1.798123122711308e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.76157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>258923.1761536977</v>
+        <v>371727.2826670791</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.1394769055734</v>
+        <v>195.7606028323906</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.0085265857301</v>
+        <v>267.8482931434278</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9698180835744</v>
+        <v>242.2852279733378</v>
       </c>
       <c r="AD2" t="n">
-        <v>138139.4769055734</v>
+        <v>195760.6028323906</v>
       </c>
       <c r="AE2" t="n">
-        <v>189008.5265857301</v>
+        <v>267848.2931434278</v>
       </c>
       <c r="AF2" t="n">
         <v>1.601582352113584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.31944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>170969.8180835744</v>
+        <v>242285.2279733378</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4152660697388</v>
+        <v>189.0637556456142</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.1223617208716</v>
+        <v>258.6853713784383</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.7864731637141</v>
+        <v>233.9968026013547</v>
       </c>
       <c r="AD2" t="n">
-        <v>140415.2660697388</v>
+        <v>189063.7556456141</v>
       </c>
       <c r="AE2" t="n">
-        <v>192122.3617208716</v>
+        <v>258685.3713784383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.473856030813867e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>173786.4731637141</v>
+        <v>233996.8026013547</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.225235964659</v>
+        <v>188.8737255405344</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.862354147565</v>
+        <v>258.4253638051318</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.5512803482809</v>
+        <v>233.7616097859215</v>
       </c>
       <c r="AD3" t="n">
-        <v>140225.235964659</v>
+        <v>188873.7255405344</v>
       </c>
       <c r="AE3" t="n">
-        <v>191862.354147565</v>
+        <v>258425.3638051318</v>
       </c>
       <c r="AF3" t="n">
         <v>1.482600347727992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>173551.2803482809</v>
+        <v>233761.6097859215</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.6418508314985</v>
+        <v>390.8919018368154</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.408852534101</v>
+        <v>534.8355450267545</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.6757971343705</v>
+        <v>483.7915912558022</v>
       </c>
       <c r="AD2" t="n">
-        <v>273641.8508314985</v>
+        <v>390891.9018368153</v>
       </c>
       <c r="AE2" t="n">
-        <v>374408.8525341009</v>
+        <v>534835.5450267545</v>
       </c>
       <c r="AF2" t="n">
         <v>1.623542068443102e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.4675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>338675.7971343705</v>
+        <v>483791.5912558022</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.9847440355243</v>
+        <v>202.5760713909063</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.7427671816821</v>
+        <v>277.1735179024364</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.6795978226535</v>
+        <v>250.7204663693848</v>
       </c>
       <c r="AD2" t="n">
-        <v>145984.7440355243</v>
+        <v>202576.0713909063</v>
       </c>
       <c r="AE2" t="n">
-        <v>199742.7671816821</v>
+        <v>277173.5179024364</v>
       </c>
       <c r="AF2" t="n">
         <v>1.770892197721152e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.2337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>180679.5978226535</v>
+        <v>250720.4663693848</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.2997968571852</v>
+        <v>194.6294845519175</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.8596392994565</v>
+        <v>266.3006472106686</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.930578987429</v>
+        <v>240.885287196266</v>
       </c>
       <c r="AD2" t="n">
-        <v>137299.7968571852</v>
+        <v>194629.4845519175</v>
       </c>
       <c r="AE2" t="n">
-        <v>187859.6392994565</v>
+        <v>266300.6472106686</v>
       </c>
       <c r="AF2" t="n">
         <v>1.665886371663893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>169930.578987429</v>
+        <v>240885.287196266</v>
       </c>
     </row>
   </sheetData>
